--- a/data/s_vals/2022/williams_trevor.xlsx
+++ b/data/s_vals/2022/williams_trevor.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.631994756860267</v>
+        <v>12.89274599722724</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C3" t="n">
-        <v>9.434403144921294</v>
+        <v>117.745847958593</v>
       </c>
       <c r="D3" t="n">
-        <v>5.12556560802943</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E3" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>17.48776094825611</v>
+        <v>1512.394913938877</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2846480661742272</v>
+        <v>0.01293466051926884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06596917852498385</v>
+        <v>0.002571899574220771</v>
       </c>
       <c r="D4" t="n">
-        <v>36.41821892982963</v>
+        <v>401567.231247708</v>
       </c>
       <c r="E4" t="n">
-        <v>4.68514169765536</v>
+        <v>2195978.878461985</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.4539778721842</v>
+        <v>2597546.125216253</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4405202784308186</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>12.76181220678641</v>
+        <v>6708.013860684405</v>
       </c>
       <c r="E5" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>16.42068510381184</v>
+        <v>7842.749269025403</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/williams_trevor.xlsx
+++ b/data/s_vals/2022/williams_trevor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>12.89274599722724</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>1512.394913938877</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>2597546.125216253</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>7842.749269025403</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/williams_trevor.xlsx
+++ b/data/s_vals/2022/williams_trevor.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.89274599722724</v>
+        <v>16.50004567884073</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C3" t="n">
-        <v>117.745847958593</v>
+        <v>109.9114832445916</v>
       </c>
       <c r="D3" t="n">
-        <v>261.3203778131603</v>
+        <v>189.6080260415259</v>
       </c>
       <c r="E3" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1512.394913938877</v>
+        <v>3097.373444011372</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01293466051926884</v>
+        <v>0.01253208636536152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002571899574220771</v>
+        <v>0.002658071450198252</v>
       </c>
       <c r="D4" t="n">
-        <v>401567.231247708</v>
+        <v>186123.597850132</v>
       </c>
       <c r="E4" t="n">
-        <v>2195978.878461985</v>
+        <v>14773364.14517103</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2597546.125216253</v>
+        <v>14959487.75821131</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04271373187048222</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C5" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D5" t="n">
-        <v>6708.013860684405</v>
+        <v>3993.344853322108</v>
       </c>
       <c r="E5" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>7842.749269025403</v>
+        <v>6792.579380600449</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
